--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T966"/>
+  <dimension ref="A1:T980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11-801VP60</t>
+          <t>11-801VP060</t>
         </is>
       </c>
       <c r="H7" s="1" t="n">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11-801VP70</t>
+          <t>11-801VP070</t>
         </is>
       </c>
       <c r="H8" s="1" t="n">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11-801VP80</t>
+          <t>11-801VP080</t>
         </is>
       </c>
       <c r="H9" s="1" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11-801VP90</t>
+          <t>11-801VP090</t>
         </is>
       </c>
       <c r="H10" s="1" t="n">
@@ -63127,864 +63127,1438 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
+          <t>13602010406</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>EC104</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>FS235 EC104 Fasternal Size XS</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E865" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>BG EC104 XS Glove/Guante 
+BG EC104 ECH/Gant 
+BG EC104 TP</t>
+        </is>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>1054267V01</t>
+        </is>
+      </c>
+      <c r="H865" s="1" t="n">
+        <v>873845</v>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>XS/ECH/TP</t>
+        </is>
+      </c>
+      <c r="J865" t="inlineStr">
+        <is>
+          <t>TemThung1MaVachBodyGuard</t>
+        </is>
+      </c>
+      <c r="K865" s="1" t="n"/>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M865" t="inlineStr">
+        <is>
+          <t>(01)50662956356751(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>(92)873845</t>
+        </is>
+      </c>
+      <c r="S865" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>13602010407</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>EC104</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>FS235 EC104 Fasternal Size S</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E866" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>BG EC104 S Glove/Guante
+BG EC104 CH/Gant
+BG EC104 P</t>
+        </is>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>1054268V01</t>
+        </is>
+      </c>
+      <c r="H866" s="1" t="n">
+        <v>873846</v>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>S/CH/P</t>
+        </is>
+      </c>
+      <c r="J866" t="inlineStr">
+        <is>
+          <t>TemThung1MaVachBodyGuard</t>
+        </is>
+      </c>
+      <c r="K866" s="1" t="n"/>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M866" t="inlineStr">
+        <is>
+          <t>(01)50662956356768(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>(92)873846</t>
+        </is>
+      </c>
+      <c r="S866" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>13602010408</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>EC104</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>FS235 EC104 Fasternal Size M</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E867" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>BG EC104 M Glove/Guante
+BG EC104 M/Gant
+BG EC104 M</t>
+        </is>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>1054269V01</t>
+        </is>
+      </c>
+      <c r="H867" s="1" t="n">
+        <v>873847</v>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J867" t="inlineStr">
+        <is>
+          <t>TemThung1MaVachBodyGuard</t>
+        </is>
+      </c>
+      <c r="K867" s="1" t="n"/>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M867" t="inlineStr">
+        <is>
+          <t>(01)50662956356775(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N867" t="inlineStr">
+        <is>
+          <t>(92)873847</t>
+        </is>
+      </c>
+      <c r="S867" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>13602010409</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>EC104</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>FS235 EC104 Fasternal Size L</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E868" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>BG EC104 L Glove/Guante
+BG EC104 G/Gant
+BG EC104 G</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>1054270V01</t>
+        </is>
+      </c>
+      <c r="H868" s="1" t="n">
+        <v>873848</v>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>L/G</t>
+        </is>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>TemThung1MaVachBodyGuard</t>
+        </is>
+      </c>
+      <c r="K868" s="1" t="n"/>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M868" t="inlineStr">
+        <is>
+          <t>(01)50662956356799(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N868" t="inlineStr">
+        <is>
+          <t>(92)873848</t>
+        </is>
+      </c>
+      <c r="S868" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>13602010410</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>EC104</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>FS235 EC104 Fasternal Size XL</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E869" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>BG EC104 XL Glove/Guante
+BG EC104 EG/Gant
+BG EC104 TG</t>
+        </is>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>1054271V01</t>
+        </is>
+      </c>
+      <c r="H869" s="1" t="n">
+        <v>873849</v>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>XL/EG/TG</t>
+        </is>
+      </c>
+      <c r="J869" t="inlineStr">
+        <is>
+          <t>TemThung1MaVachBodyGuard</t>
+        </is>
+      </c>
+      <c r="K869" s="1" t="n"/>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M869" t="inlineStr">
+        <is>
+          <t>(01)50662956356805(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>(92)873849</t>
+        </is>
+      </c>
+      <c r="S869" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>13602010411</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>EC104</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>FS235 EC104 Fasternal Size 2XL</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E870" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>BG EC104 2XL Glove/Guante
+BG EC104 2EG/Gant
+BG EC104 2TG</t>
+        </is>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>1054272V01</t>
+        </is>
+      </c>
+      <c r="H870" s="1" t="n">
+        <v>873850</v>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>2XL/2EG/2TG</t>
+        </is>
+      </c>
+      <c r="J870" t="inlineStr">
+        <is>
+          <t>TemThung1MaVachBodyGuard</t>
+        </is>
+      </c>
+      <c r="K870" s="1" t="n"/>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M870" t="inlineStr">
+        <is>
+          <t>(01)50662956356812(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N870" t="inlineStr">
+        <is>
+          <t>(92)873850</t>
+        </is>
+      </c>
+      <c r="S870" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
           <t>13702010406</t>
         </is>
       </c>
-      <c r="B865" t="inlineStr">
+      <c r="B871" t="inlineStr">
         <is>
           <t>200-1</t>
         </is>
       </c>
-      <c r="C865" t="inlineStr">
+      <c r="C871" t="inlineStr">
         <is>
           <t>FS313 200-1 Fasternal Size XS</t>
         </is>
       </c>
-      <c r="D865" t="inlineStr">
-        <is>
-          <t>VIETNAM</t>
-        </is>
-      </c>
-      <c r="E865" s="1" t="n">
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E871" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="F865" t="inlineStr">
+      <c r="F871" t="inlineStr">
         <is>
           <t>BG 200-1 XS Glove/Guante
 BG 200-1 ECH/Gant BG 200-1 TP</t>
         </is>
       </c>
-      <c r="G865" t="inlineStr">
+      <c r="G871" t="inlineStr">
         <is>
           <t>111024798</t>
         </is>
       </c>
-      <c r="H865" s="1" t="n">
+      <c r="H871" s="1" t="n">
         <v>873692</v>
       </c>
-      <c r="I865" t="inlineStr">
+      <c r="I871" t="inlineStr">
         <is>
           <t>XS/ECH/TP</t>
         </is>
       </c>
-      <c r="J865" t="inlineStr">
+      <c r="J871" t="inlineStr">
         <is>
           <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
-      <c r="K865" s="1" t="n"/>
-      <c r="L865" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M865" t="inlineStr">
+      <c r="K871" s="1" t="n"/>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M871" t="inlineStr">
         <is>
           <t>(01)50662956439867(17)000000(10)</t>
         </is>
       </c>
-      <c r="N865" t="inlineStr">
+      <c r="N871" t="inlineStr">
         <is>
           <t>(92)873692</t>
         </is>
       </c>
-      <c r="S865" t="inlineStr">
+      <c r="S871" t="inlineStr">
         <is>
           <t>PR/PARES/PAR</t>
         </is>
       </c>
     </row>
-    <row r="866">
-      <c r="A866" t="inlineStr">
+    <row r="872">
+      <c r="A872" t="inlineStr">
         <is>
           <t>13702010407</t>
         </is>
       </c>
-      <c r="B866" t="inlineStr">
+      <c r="B872" t="inlineStr">
         <is>
           <t>200-1</t>
         </is>
       </c>
-      <c r="C866" t="inlineStr">
+      <c r="C872" t="inlineStr">
         <is>
           <t>FS313 200-1 Fasternal Size S</t>
         </is>
       </c>
-      <c r="D866" t="inlineStr">
-        <is>
-          <t>VIETNAM</t>
-        </is>
-      </c>
-      <c r="E866" s="1" t="n">
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E872" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="F866" t="inlineStr">
+      <c r="F872" t="inlineStr">
         <is>
           <t>BG 200-1 S Glove/Guante
 BG 200-1 CH/Gant BG 200-1 P</t>
         </is>
       </c>
-      <c r="G866" t="inlineStr">
+      <c r="G872" t="inlineStr">
         <is>
           <t>111024799</t>
         </is>
       </c>
-      <c r="H866" s="1" t="n">
+      <c r="H872" s="1" t="n">
         <v>873693</v>
       </c>
-      <c r="I866" t="inlineStr">
+      <c r="I872" t="inlineStr">
         <is>
           <t>S/CH/P</t>
         </is>
       </c>
-      <c r="J866" t="inlineStr">
+      <c r="J872" t="inlineStr">
         <is>
           <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
-      <c r="K866" s="1" t="n"/>
-      <c r="L866" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M866" t="inlineStr">
+      <c r="K872" s="1" t="n"/>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M872" t="inlineStr">
         <is>
           <t>(01)50662956439874(17)000000(10)</t>
         </is>
       </c>
-      <c r="N866" t="inlineStr">
+      <c r="N872" t="inlineStr">
         <is>
           <t>(92)873693</t>
         </is>
       </c>
-      <c r="S866" t="inlineStr">
+      <c r="S872" t="inlineStr">
         <is>
           <t>PR/PARES/PAR</t>
         </is>
       </c>
     </row>
-    <row r="867">
-      <c r="A867" t="inlineStr">
+    <row r="873">
+      <c r="A873" t="inlineStr">
         <is>
           <t>13702010408</t>
         </is>
       </c>
-      <c r="B867" t="inlineStr">
+      <c r="B873" t="inlineStr">
         <is>
           <t>200-1</t>
         </is>
       </c>
-      <c r="C867" t="inlineStr">
+      <c r="C873" t="inlineStr">
         <is>
           <t>FS313 200-1 Fasternal Size M</t>
         </is>
       </c>
-      <c r="D867" t="inlineStr">
-        <is>
-          <t>VIETNAM</t>
-        </is>
-      </c>
-      <c r="E867" s="1" t="n">
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E873" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="F867" t="inlineStr">
+      <c r="F873" t="inlineStr">
         <is>
           <t>BG 200-1 M Glove/Guante
 BG 200-1 M/Gant BG 200-1 M</t>
         </is>
       </c>
-      <c r="G867" t="inlineStr">
+      <c r="G873" t="inlineStr">
         <is>
           <t>111024800</t>
         </is>
       </c>
-      <c r="H867" s="1" t="n">
+      <c r="H873" s="1" t="n">
         <v>873694</v>
       </c>
-      <c r="I867" t="inlineStr">
+      <c r="I873" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="J867" t="inlineStr">
+      <c r="J873" t="inlineStr">
         <is>
           <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
-      <c r="K867" s="1" t="n"/>
-      <c r="L867" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M867" t="inlineStr">
+      <c r="K873" s="1" t="n"/>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M873" t="inlineStr">
         <is>
           <t>(01)50662956439881(17)000000(10)</t>
         </is>
       </c>
-      <c r="N867" t="inlineStr">
+      <c r="N873" t="inlineStr">
         <is>
           <t>(92)873694</t>
         </is>
       </c>
-      <c r="S867" t="inlineStr">
+      <c r="S873" t="inlineStr">
         <is>
           <t>PR/PARES/PAR</t>
         </is>
       </c>
     </row>
-    <row r="868">
-      <c r="A868" t="inlineStr">
+    <row r="874">
+      <c r="A874" t="inlineStr">
         <is>
           <t>13702010409</t>
         </is>
       </c>
-      <c r="B868" t="inlineStr">
+      <c r="B874" t="inlineStr">
         <is>
           <t>200-1</t>
         </is>
       </c>
-      <c r="C868" t="inlineStr">
+      <c r="C874" t="inlineStr">
         <is>
           <t>FS313 200-1 Fasternal Size L</t>
         </is>
       </c>
-      <c r="D868" t="inlineStr">
-        <is>
-          <t>VIETNAM</t>
-        </is>
-      </c>
-      <c r="E868" s="1" t="n">
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E874" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="F868" t="inlineStr">
+      <c r="F874" t="inlineStr">
         <is>
           <t>BG 200-1 L Glove/Guante
 BG 200-1 G/Gant BG 200-1 G</t>
         </is>
       </c>
-      <c r="G868" t="inlineStr">
+      <c r="G874" t="inlineStr">
         <is>
           <t>111024801</t>
         </is>
       </c>
-      <c r="H868" s="1" t="n">
+      <c r="H874" s="1" t="n">
         <v>873695</v>
       </c>
-      <c r="I868" t="inlineStr">
+      <c r="I874" t="inlineStr">
         <is>
           <t>L/G</t>
         </is>
       </c>
-      <c r="J868" t="inlineStr">
+      <c r="J874" t="inlineStr">
         <is>
           <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
-      <c r="K868" s="1" t="n"/>
-      <c r="L868" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M868" t="inlineStr">
+      <c r="K874" s="1" t="n"/>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M874" t="inlineStr">
         <is>
           <t>(01)50662956439898(17)000000(10)</t>
         </is>
       </c>
-      <c r="N868" t="inlineStr">
+      <c r="N874" t="inlineStr">
         <is>
           <t>(92)873695</t>
         </is>
       </c>
-      <c r="S868" t="inlineStr">
+      <c r="S874" t="inlineStr">
         <is>
           <t>PR/PARES/PAR</t>
         </is>
       </c>
     </row>
-    <row r="869">
-      <c r="A869" t="inlineStr">
+    <row r="875">
+      <c r="A875" t="inlineStr">
         <is>
           <t>13702010410</t>
         </is>
       </c>
-      <c r="B869" t="inlineStr">
+      <c r="B875" t="inlineStr">
         <is>
           <t>200-1</t>
         </is>
       </c>
-      <c r="C869" t="inlineStr">
+      <c r="C875" t="inlineStr">
         <is>
           <t>FS313 200-1 Fasternal Size XL</t>
         </is>
       </c>
-      <c r="D869" t="inlineStr">
-        <is>
-          <t>VIETNAM</t>
-        </is>
-      </c>
-      <c r="E869" s="1" t="n">
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E875" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="F869" t="inlineStr">
+      <c r="F875" t="inlineStr">
         <is>
           <t>BG 200-1 XL Glove/Guante
 BG 200-1 EG/Gant BG 200-1 TG</t>
         </is>
       </c>
-      <c r="G869" t="inlineStr">
+      <c r="G875" t="inlineStr">
         <is>
           <t>111024802</t>
         </is>
       </c>
-      <c r="H869" s="1" t="n">
+      <c r="H875" s="1" t="n">
         <v>873696</v>
       </c>
-      <c r="I869" t="inlineStr">
+      <c r="I875" t="inlineStr">
         <is>
           <t>XL/EG/TG</t>
         </is>
       </c>
-      <c r="J869" t="inlineStr">
+      <c r="J875" t="inlineStr">
         <is>
           <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
-      <c r="K869" s="1" t="n"/>
-      <c r="L869" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M869" t="inlineStr">
+      <c r="K875" s="1" t="n"/>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M875" t="inlineStr">
         <is>
           <t>(01)50662956439911(17)000000(10)</t>
         </is>
       </c>
-      <c r="N869" t="inlineStr">
+      <c r="N875" t="inlineStr">
         <is>
           <t>(92)873696</t>
         </is>
       </c>
-      <c r="S869" t="inlineStr">
+      <c r="S875" t="inlineStr">
         <is>
           <t>PR/PARES/PAR</t>
         </is>
       </c>
     </row>
-    <row r="870">
-      <c r="A870" t="inlineStr">
+    <row r="876">
+      <c r="A876" t="inlineStr">
         <is>
           <t>13702010411</t>
         </is>
       </c>
-      <c r="B870" t="inlineStr">
+      <c r="B876" t="inlineStr">
         <is>
           <t>200-1</t>
         </is>
       </c>
-      <c r="C870" t="inlineStr">
+      <c r="C876" t="inlineStr">
         <is>
           <t>FS313 200-1 Fasternal Size 2XL</t>
         </is>
       </c>
-      <c r="D870" t="inlineStr">
-        <is>
-          <t>VIETNAM</t>
-        </is>
-      </c>
-      <c r="E870" s="1" t="n">
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E876" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="F870" t="inlineStr">
+      <c r="F876" t="inlineStr">
         <is>
           <t>BG 200-1 2XL Glove/Guante
 BG 200-1 2EG/Gant BG 200-1 2TG</t>
         </is>
       </c>
-      <c r="G870" t="inlineStr">
+      <c r="G876" t="inlineStr">
         <is>
           <t>111024803</t>
         </is>
       </c>
-      <c r="H870" s="1" t="n">
+      <c r="H876" s="1" t="n">
         <v>873697</v>
       </c>
-      <c r="I870" t="inlineStr">
+      <c r="I876" t="inlineStr">
         <is>
           <t>2XL/2EG/2TG</t>
         </is>
       </c>
-      <c r="J870" t="inlineStr">
+      <c r="J876" t="inlineStr">
         <is>
           <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
-      <c r="K870" s="1" t="n"/>
-      <c r="L870" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M870" t="inlineStr">
+      <c r="K876" s="1" t="n"/>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M876" t="inlineStr">
         <is>
           <t>(01)50662956439928(17)000000(10)</t>
         </is>
       </c>
-      <c r="N870" t="inlineStr">
+      <c r="N876" t="inlineStr">
         <is>
           <t>(92)873697</t>
         </is>
       </c>
-      <c r="S870" t="inlineStr">
+      <c r="S876" t="inlineStr">
         <is>
           <t>PR/PARES/PAR</t>
         </is>
       </c>
-    </row>
-    <row r="871">
-      <c r="A871" t="inlineStr">
-        <is>
-          <t>52305040406</t>
-        </is>
-      </c>
-      <c r="C871" t="inlineStr">
-        <is>
-          <t>GW-264 TN_2990</t>
-        </is>
-      </c>
-      <c r="E871" s="1" t="n"/>
-      <c r="F871" t="inlineStr">
-        <is>
-          <t>GW-264 TN_2990</t>
-        </is>
-      </c>
-      <c r="H871" s="1" t="n"/>
-      <c r="I871" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J871" t="inlineStr">
-        <is>
-          <t>OEM</t>
-        </is>
-      </c>
-      <c r="K871" s="1" t="n"/>
-    </row>
-    <row r="872">
-      <c r="A872" t="inlineStr">
-        <is>
-          <t>52305040407</t>
-        </is>
-      </c>
-      <c r="C872" t="inlineStr">
-        <is>
-          <t>GW-264 TN_2990</t>
-        </is>
-      </c>
-      <c r="E872" s="1" t="n"/>
-      <c r="F872" t="inlineStr">
-        <is>
-          <t>GW-264 TN_2990</t>
-        </is>
-      </c>
-      <c r="H872" s="1" t="n"/>
-      <c r="I872" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J872" t="inlineStr">
-        <is>
-          <t>OEM</t>
-        </is>
-      </c>
-      <c r="K872" s="1" t="n"/>
-    </row>
-    <row r="873">
-      <c r="A873" t="inlineStr">
-        <is>
-          <t>52305040408</t>
-        </is>
-      </c>
-      <c r="C873" t="inlineStr">
-        <is>
-          <t>GW-264 TN_2990</t>
-        </is>
-      </c>
-      <c r="E873" s="1" t="n"/>
-      <c r="F873" t="inlineStr">
-        <is>
-          <t>GW-264 TN_2990</t>
-        </is>
-      </c>
-      <c r="H873" s="1" t="n"/>
-      <c r="I873" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J873" t="inlineStr">
-        <is>
-          <t>OEM</t>
-        </is>
-      </c>
-      <c r="K873" s="1" t="n"/>
-    </row>
-    <row r="874">
-      <c r="A874" t="inlineStr">
-        <is>
-          <t>58305040406</t>
-        </is>
-      </c>
-      <c r="C874" t="inlineStr">
-        <is>
-          <t>KW-513 TN_2997</t>
-        </is>
-      </c>
-      <c r="E874" s="1" t="n"/>
-      <c r="F874" t="inlineStr">
-        <is>
-          <t>KW-513 TN_2997</t>
-        </is>
-      </c>
-      <c r="H874" s="1" t="n"/>
-      <c r="I874" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J874" t="inlineStr">
-        <is>
-          <t>OEM</t>
-        </is>
-      </c>
-      <c r="K874" s="1" t="n"/>
-    </row>
-    <row r="875">
-      <c r="A875" t="inlineStr">
-        <is>
-          <t>58305040407</t>
-        </is>
-      </c>
-      <c r="C875" t="inlineStr">
-        <is>
-          <t>KW-513 TN_2997</t>
-        </is>
-      </c>
-      <c r="E875" s="1" t="n"/>
-      <c r="F875" t="inlineStr">
-        <is>
-          <t>KW-513 TN_2997</t>
-        </is>
-      </c>
-      <c r="H875" s="1" t="n"/>
-      <c r="I875" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J875" t="inlineStr">
-        <is>
-          <t>OEM</t>
-        </is>
-      </c>
-      <c r="K875" s="1" t="n"/>
-    </row>
-    <row r="876">
-      <c r="A876" t="inlineStr">
-        <is>
-          <t>58305040408</t>
-        </is>
-      </c>
-      <c r="C876" t="inlineStr">
-        <is>
-          <t>KW-513 TN_2997</t>
-        </is>
-      </c>
-      <c r="E876" s="1" t="n"/>
-      <c r="F876" t="inlineStr">
-        <is>
-          <t>KW-513 TN_2997</t>
-        </is>
-      </c>
-      <c r="H876" s="1" t="n"/>
-      <c r="I876" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J876" t="inlineStr">
-        <is>
-          <t>OEM</t>
-        </is>
-      </c>
-      <c r="K876" s="1" t="n"/>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>58305040409</t>
+          <t>13802010405</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>EC1016</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>KW-513 TN_2997</t>
-        </is>
-      </c>
-      <c r="E877" s="1" t="n"/>
+          <t>FS735 EC1016 Fasternal Size 2XS</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E877" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>KW-513 TN_2997</t>
-        </is>
-      </c>
-      <c r="H877" s="1" t="n"/>
+          <t>BG EC1016 2XS Glove/Guante
+BG EC1016 2ECH/Gant
+BG EC1016 2TP</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>1088245V01</t>
+        </is>
+      </c>
+      <c r="H877" s="1" t="n">
+        <v>873699</v>
+      </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2XS/2ECH/2TP</t>
         </is>
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>OEM</t>
+          <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
       <c r="K877" s="1" t="n"/>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M877" t="inlineStr">
+        <is>
+          <t>(01)50662956338108(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N877" t="inlineStr">
+        <is>
+          <t>(92)873699</t>
+        </is>
+      </c>
+      <c r="S877" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>51605040406</t>
+          <t>13802010406</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>EC1016</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>GW243 TN_2989</t>
-        </is>
-      </c>
-      <c r="E878" s="1" t="n"/>
+          <t>FS735 EC1016 Fasternal Size XS</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E878" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>GW243 TN_2989</t>
-        </is>
-      </c>
-      <c r="H878" s="1" t="n"/>
+          <t>BG EC1016 XS Glove/Guante
+BG EC1016 ECH/Gant
+BG EC1016 TP</t>
+        </is>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>1088246V01</t>
+        </is>
+      </c>
+      <c r="H878" s="1" t="n">
+        <v>873700</v>
+      </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>XS/ECH/TP</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>OEM</t>
+          <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
       <c r="K878" s="1" t="n"/>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M878" t="inlineStr">
+        <is>
+          <t>(01)50662956338115(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N878" t="inlineStr">
+        <is>
+          <t>(92)873700</t>
+        </is>
+      </c>
+      <c r="S878" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>51605040407</t>
+          <t>13802010407</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>EC1016</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>GW-243 TN_2989</t>
-        </is>
-      </c>
-      <c r="E879" s="1" t="n"/>
+          <t>FS735 EC1016 Fasternal Size S</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E879" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>GW-243 TN_2989</t>
-        </is>
-      </c>
-      <c r="H879" s="1" t="n"/>
+          <t>BG EC1016 S Glove/Guante
+BG EC1016 CH/Gant
+BG EC1016 P</t>
+        </is>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>1088247V01</t>
+        </is>
+      </c>
+      <c r="H879" s="1" t="n">
+        <v>873701</v>
+      </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>S/CH/P</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>OEM</t>
+          <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
       <c r="K879" s="1" t="n"/>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M879" t="inlineStr">
+        <is>
+          <t>(01)50662956338125(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N879" t="inlineStr">
+        <is>
+          <t>(92)873701</t>
+        </is>
+      </c>
+      <c r="S879" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>51605040408</t>
+          <t>13802010408</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>EC1016</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>GW-243 TN_2989</t>
-        </is>
-      </c>
-      <c r="E880" s="1" t="n"/>
+          <t>FS735 EC1016 Fasternal Size M</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E880" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>GW-243 TN_2989</t>
-        </is>
-      </c>
-      <c r="H880" s="1" t="n"/>
+          <t>BG EC1016 M Glove/Guante
+BG EC1016 M/Gant
+BG EC1016 M</t>
+        </is>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>1088248V01</t>
+        </is>
+      </c>
+      <c r="H880" s="1" t="n">
+        <v>873702</v>
+      </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>OEM</t>
+          <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
       <c r="K880" s="1" t="n"/>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M880" t="inlineStr">
+        <is>
+          <t>(01)50662956338139(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>(92)873702</t>
+        </is>
+      </c>
+      <c r="S880" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>51605040409</t>
+          <t>13802010409</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>EC1016</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>GW-243 TN_2989</t>
-        </is>
-      </c>
-      <c r="E881" s="1" t="n"/>
+          <t>FS735 EC1016 Fasternal Size L</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E881" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>GW-243 TN_2989</t>
-        </is>
-      </c>
-      <c r="H881" s="1" t="n"/>
+          <t>BG EC1016 L Glove/Guante
+BG EC1016 G/Gant
+BG EC1016 G</t>
+        </is>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>1088249V01</t>
+        </is>
+      </c>
+      <c r="H881" s="1" t="n">
+        <v>873703</v>
+      </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>L/G</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>OEM</t>
+          <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
       <c r="K881" s="1" t="n"/>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M881" t="inlineStr">
+        <is>
+          <t>(01)50662956338146(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>(92)873703</t>
+        </is>
+      </c>
+      <c r="S881" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>56205040406</t>
+          <t>13802010410</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>EC1016</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>SF-240 # 2950</t>
-        </is>
-      </c>
-      <c r="E882" s="1" t="n"/>
+          <t>FS735 EC1016 Fasternal Size XL</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E882" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>SF-240 # 2950</t>
-        </is>
-      </c>
-      <c r="H882" s="1" t="n"/>
+          <t>BG EC1016 XL Glove/Guante
+BG EC1016 EG/Gant
+BG EC1016 TG</t>
+        </is>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>1088250V01</t>
+        </is>
+      </c>
+      <c r="H882" s="1" t="n">
+        <v>873704</v>
+      </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>XL/EG/TG</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>OEM</t>
+          <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
       <c r="K882" s="1" t="n"/>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M882" t="inlineStr">
+        <is>
+          <t>(01)50662956338153(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>(92)873704</t>
+        </is>
+      </c>
+      <c r="S882" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>50905040406</t>
+          <t>13802010411</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>EC1016</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>GW-240 #2992</t>
-        </is>
-      </c>
-      <c r="E883" s="1" t="n"/>
+          <t>FS735 EC1016 Fasternal Size 2XL</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E883" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>GW-240 #2992</t>
-        </is>
-      </c>
-      <c r="H883" s="1" t="n"/>
+          <t>BG EC1016 2XL Glove/Guante
+BG EC1016 2EG/Gant
+BG EC1016 2TG</t>
+        </is>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>1088251V01</t>
+        </is>
+      </c>
+      <c r="H883" s="1" t="n">
+        <v>873705</v>
+      </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2XL/2EG/2TG</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>OEM</t>
+          <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
       <c r="K883" s="1" t="n"/>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M883" t="inlineStr">
+        <is>
+          <t>(01)50662956338160(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N883" t="inlineStr">
+        <is>
+          <t>(92)873705</t>
+        </is>
+      </c>
+      <c r="S883" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>50905040407</t>
+          <t>13802010412</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>EC1016</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>GW-240 #2992</t>
-        </is>
-      </c>
-      <c r="E884" s="1" t="n"/>
+          <t>FS735 EC1016 Fasternal Size 3XL</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="E884" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>GW-240 #2992</t>
-        </is>
-      </c>
-      <c r="H884" s="1" t="n"/>
+          <t>BG EC1016 3XL Glove/Guante
+BG EC1016 3EG/Gant
+BG EC1016 3TG</t>
+        </is>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>1088252V01</t>
+        </is>
+      </c>
+      <c r="H884" s="1" t="n">
+        <v>873748</v>
+      </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3XL/3EG/3TG</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>OEM</t>
+          <t>TemThung1MaVachBodyGuard</t>
         </is>
       </c>
       <c r="K884" s="1" t="n"/>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="M884" t="inlineStr">
+        <is>
+          <t>(01)50662956338177(17)000000(10)</t>
+        </is>
+      </c>
+      <c r="N884" t="inlineStr">
+        <is>
+          <t>(92)873748</t>
+        </is>
+      </c>
+      <c r="S884" t="inlineStr">
+        <is>
+          <t>PR/PARES/PAR</t>
+        </is>
+      </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>50905040408</t>
+          <t>52305040406</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>GW-240 #2992</t>
+          <t>GW-264 TN_2990</t>
         </is>
       </c>
       <c r="E885" s="1" t="n"/>
       <c r="F885" t="inlineStr">
         <is>
-          <t>GW-240 #2992</t>
+          <t>GW-264 TN_2990</t>
         </is>
       </c>
       <c r="H885" s="1" t="n"/>
       <c r="I885" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
@@ -63997,24 +64571,24 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>50905040409</t>
+          <t>52305040407</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>GW-240 #2992</t>
+          <t>GW-264 TN_2990</t>
         </is>
       </c>
       <c r="E886" s="1" t="n"/>
       <c r="F886" t="inlineStr">
         <is>
-          <t>GW-240 #2992</t>
+          <t>GW-264 TN_2990</t>
         </is>
       </c>
       <c r="H886" s="1" t="n"/>
       <c r="I886" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
@@ -64027,24 +64601,24 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>51005040406</t>
+          <t>52305040408</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>GW-240 TN_2992</t>
+          <t>GW-264 TN_2990</t>
         </is>
       </c>
       <c r="E887" s="1" t="n"/>
       <c r="F887" t="inlineStr">
         <is>
-          <t>GW-240 TN_2992</t>
+          <t>GW-264 TN_2990</t>
         </is>
       </c>
       <c r="H887" s="1" t="n"/>
       <c r="I887" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
@@ -64057,24 +64631,24 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>51005040407</t>
+          <t>58305040406</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>GW-240 TN_2992</t>
+          <t>KW-513 TN_2997</t>
         </is>
       </c>
       <c r="E888" s="1" t="n"/>
       <c r="F888" t="inlineStr">
         <is>
-          <t>GW-240 TN_2992</t>
+          <t>KW-513 TN_2997</t>
         </is>
       </c>
       <c r="H888" s="1" t="n"/>
       <c r="I888" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
@@ -64087,24 +64661,24 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>51005040408</t>
+          <t>58305040407</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>GW-240 TN_2992</t>
+          <t>KW-513 TN_2997</t>
         </is>
       </c>
       <c r="E889" s="1" t="n"/>
       <c r="F889" t="inlineStr">
         <is>
-          <t>GW-240 TN_2992</t>
+          <t>KW-513 TN_2997</t>
         </is>
       </c>
       <c r="H889" s="1" t="n"/>
       <c r="I889" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J889" t="inlineStr">
@@ -64117,24 +64691,24 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>51205040406</t>
+          <t>58305040408</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>GW-243 #2984</t>
+          <t>KW-513 TN_2997</t>
         </is>
       </c>
       <c r="E890" s="1" t="n"/>
       <c r="F890" t="inlineStr">
         <is>
-          <t>GW-243 #2984</t>
+          <t>KW-513 TN_2997</t>
         </is>
       </c>
       <c r="H890" s="1" t="n"/>
       <c r="I890" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
@@ -64147,24 +64721,24 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>51205040407</t>
+          <t>58305040409</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>GW-243 #2984</t>
+          <t>KW-513 TN_2997</t>
         </is>
       </c>
       <c r="E891" s="1" t="n"/>
       <c r="F891" t="inlineStr">
         <is>
-          <t>GW-243 #2984</t>
+          <t>KW-513 TN_2997</t>
         </is>
       </c>
       <c r="H891" s="1" t="n"/>
       <c r="I891" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
@@ -64177,24 +64751,24 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>51205040408</t>
+          <t>51605040406</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>GW-243 #2984</t>
+          <t>GW243 TN_2989</t>
         </is>
       </c>
       <c r="E892" s="1" t="n"/>
       <c r="F892" t="inlineStr">
         <is>
-          <t>GW-243 #2984</t>
+          <t>GW243 TN_2989</t>
         </is>
       </c>
       <c r="H892" s="1" t="n"/>
       <c r="I892" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
@@ -64207,24 +64781,24 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>51205040409</t>
+          <t>51605040407</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>GW-243 #2984</t>
+          <t>GW-243 TN_2989</t>
         </is>
       </c>
       <c r="E893" s="1" t="n"/>
       <c r="F893" t="inlineStr">
         <is>
-          <t>GW-243 #2984</t>
+          <t>GW-243 TN_2989</t>
         </is>
       </c>
       <c r="H893" s="1" t="n"/>
       <c r="I893" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
@@ -64237,24 +64811,24 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>51505040406</t>
+          <t>51605040408</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>GW-243 TN_2984</t>
+          <t>GW-243 TN_2989</t>
         </is>
       </c>
       <c r="E894" s="1" t="n"/>
       <c r="F894" t="inlineStr">
         <is>
-          <t>GW-243 TN_2984</t>
+          <t>GW-243 TN_2989</t>
         </is>
       </c>
       <c r="H894" s="1" t="n"/>
       <c r="I894" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
@@ -64267,24 +64841,24 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>51505040407</t>
+          <t>51605040409</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>GW-243 TN_2984</t>
+          <t>GW-243 TN_2989</t>
         </is>
       </c>
       <c r="E895" s="1" t="n"/>
       <c r="F895" t="inlineStr">
         <is>
-          <t>GW-243 TN_2984</t>
+          <t>GW-243 TN_2989</t>
         </is>
       </c>
       <c r="H895" s="1" t="n"/>
       <c r="I895" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J895" t="inlineStr">
@@ -64297,24 +64871,24 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>51505040408</t>
+          <t>56205040406</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>GW-243 TN_2984</t>
+          <t>SF-240 # 2950</t>
         </is>
       </c>
       <c r="E896" s="1" t="n"/>
       <c r="F896" t="inlineStr">
         <is>
-          <t>GW-243 TN_2984</t>
+          <t>SF-240 # 2950</t>
         </is>
       </c>
       <c r="H896" s="1" t="n"/>
       <c r="I896" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
@@ -64327,18 +64901,18 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>52005040406</t>
+          <t>50905040406</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>GW-248 TN_2988</t>
+          <t>GW-240 #2992</t>
         </is>
       </c>
       <c r="E897" s="1" t="n"/>
       <c r="F897" t="inlineStr">
         <is>
-          <t>GW-248 TN_2988</t>
+          <t>GW-240 #2992</t>
         </is>
       </c>
       <c r="H897" s="1" t="n"/>
@@ -64357,18 +64931,18 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>52005040407</t>
+          <t>50905040407</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>GW-248 TN_2988</t>
+          <t>GW-240 #2992</t>
         </is>
       </c>
       <c r="E898" s="1" t="n"/>
       <c r="F898" t="inlineStr">
         <is>
-          <t>GW-248 TN_2988</t>
+          <t>GW-240 #2992</t>
         </is>
       </c>
       <c r="H898" s="1" t="n"/>
@@ -64387,18 +64961,18 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>52005040408</t>
+          <t>50905040408</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>GW-248 TN_2988</t>
+          <t>GW-240 #2992</t>
         </is>
       </c>
       <c r="E899" s="1" t="n"/>
       <c r="F899" t="inlineStr">
         <is>
-          <t>GW-248 TN_2988</t>
+          <t>GW-240 #2992</t>
         </is>
       </c>
       <c r="H899" s="1" t="n"/>
@@ -64417,18 +64991,18 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>52005040409</t>
+          <t>50905040409</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>GW-248 TN_2988</t>
+          <t>GW-240 #2992</t>
         </is>
       </c>
       <c r="E900" s="1" t="n"/>
       <c r="F900" t="inlineStr">
         <is>
-          <t>GW-248 TN_2988</t>
+          <t>GW-240 #2992</t>
         </is>
       </c>
       <c r="H900" s="1" t="n"/>
@@ -64447,18 +65021,18 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>58505040406</t>
+          <t>51005040406</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>GW-248 TN_2999</t>
+          <t>GW-240 TN_2992</t>
         </is>
       </c>
       <c r="E901" s="1" t="n"/>
       <c r="F901" t="inlineStr">
         <is>
-          <t>GW-248 TN_2999</t>
+          <t>GW-240 TN_2992</t>
         </is>
       </c>
       <c r="H901" s="1" t="n"/>
@@ -64477,18 +65051,18 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>58505040407</t>
+          <t>51005040407</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>GW-248 TN_2999</t>
+          <t>GW-240 TN_2992</t>
         </is>
       </c>
       <c r="E902" s="1" t="n"/>
       <c r="F902" t="inlineStr">
         <is>
-          <t>GW-248 TN_2999</t>
+          <t>GW-240 TN_2992</t>
         </is>
       </c>
       <c r="H902" s="1" t="n"/>
@@ -64507,18 +65081,18 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>58505040408</t>
+          <t>51005040408</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>GW-248 TN_2999</t>
+          <t>GW-240 TN_2992</t>
         </is>
       </c>
       <c r="E903" s="1" t="n"/>
       <c r="F903" t="inlineStr">
         <is>
-          <t>GW-248 TN_2999</t>
+          <t>GW-240 TN_2992</t>
         </is>
       </c>
       <c r="H903" s="1" t="n"/>
@@ -64537,18 +65111,18 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>51305040406</t>
+          <t>51205040406</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>GW-243 AK2989</t>
+          <t>GW-243 #2984</t>
         </is>
       </c>
       <c r="E904" s="1" t="n"/>
       <c r="F904" t="inlineStr">
         <is>
-          <t>GW-243 AK2989</t>
+          <t>GW-243 #2984</t>
         </is>
       </c>
       <c r="H904" s="1" t="n"/>
@@ -64567,18 +65141,18 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>51305040407</t>
+          <t>51205040407</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>GW-243 AK2989</t>
+          <t>GW-243 #2984</t>
         </is>
       </c>
       <c r="E905" s="1" t="n"/>
       <c r="F905" t="inlineStr">
         <is>
-          <t>GW-243 AK2989</t>
+          <t>GW-243 #2984</t>
         </is>
       </c>
       <c r="H905" s="1" t="n"/>
@@ -64597,18 +65171,18 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>51305040408</t>
+          <t>51205040408</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>GW-243 AK2989</t>
+          <t>GW-243 #2984</t>
         </is>
       </c>
       <c r="E906" s="1" t="n"/>
       <c r="F906" t="inlineStr">
         <is>
-          <t>GW-243 AK2989</t>
+          <t>GW-243 #2984</t>
         </is>
       </c>
       <c r="H906" s="1" t="n"/>
@@ -64627,24 +65201,24 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>51705040406</t>
+          <t>51205040409</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>GW-243LC #2994</t>
+          <t>GW-243 #2984</t>
         </is>
       </c>
       <c r="E907" s="1" t="n"/>
       <c r="F907" t="inlineStr">
         <is>
-          <t>GW-243LC #2994</t>
+          <t>GW-243 #2984</t>
         </is>
       </c>
       <c r="H907" s="1" t="n"/>
       <c r="I907" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J907" t="inlineStr">
@@ -64657,24 +65231,24 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>51705040407</t>
+          <t>51505040406</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>GW-243LC #2994</t>
+          <t>GW-243 TN_2984</t>
         </is>
       </c>
       <c r="E908" s="1" t="n"/>
       <c r="F908" t="inlineStr">
         <is>
-          <t>GW-243LC #2994</t>
+          <t>GW-243 TN_2984</t>
         </is>
       </c>
       <c r="H908" s="1" t="n"/>
       <c r="I908" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J908" t="inlineStr">
@@ -64687,24 +65261,24 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>51705040408</t>
+          <t>51505040407</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>GW-243LC #2994</t>
+          <t>GW-243 TN_2984</t>
         </is>
       </c>
       <c r="E909" s="1" t="n"/>
       <c r="F909" t="inlineStr">
         <is>
-          <t>GW-243LC #2994</t>
+          <t>GW-243 TN_2984</t>
         </is>
       </c>
       <c r="H909" s="1" t="n"/>
       <c r="I909" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J909" t="inlineStr">
@@ -64717,24 +65291,24 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>51705040409</t>
+          <t>51505040408</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>GW-243LC #2994</t>
+          <t>GW-243 TN_2984</t>
         </is>
       </c>
       <c r="E910" s="1" t="n"/>
       <c r="F910" t="inlineStr">
         <is>
-          <t>GW-243LC #2994</t>
+          <t>GW-243 TN_2984</t>
         </is>
       </c>
       <c r="H910" s="1" t="n"/>
       <c r="I910" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J910" t="inlineStr">
@@ -64747,18 +65321,18 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>51905040406</t>
+          <t>52005040406</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>GW-248 #2988</t>
+          <t>GW-248 TN_2988</t>
         </is>
       </c>
       <c r="E911" s="1" t="n"/>
       <c r="F911" t="inlineStr">
         <is>
-          <t>GW-248 #2988</t>
+          <t>GW-248 TN_2988</t>
         </is>
       </c>
       <c r="H911" s="1" t="n"/>
@@ -64777,18 +65351,18 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>51905040407</t>
+          <t>52005040407</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>GW-248 #2988</t>
+          <t>GW-248 TN_2988</t>
         </is>
       </c>
       <c r="E912" s="1" t="n"/>
       <c r="F912" t="inlineStr">
         <is>
-          <t>GW-248 #2988</t>
+          <t>GW-248 TN_2988</t>
         </is>
       </c>
       <c r="H912" s="1" t="n"/>
@@ -64807,18 +65381,18 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>51905040408</t>
+          <t>52005040408</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>GW-248 #2988</t>
+          <t>GW-248 TN_2988</t>
         </is>
       </c>
       <c r="E913" s="1" t="n"/>
       <c r="F913" t="inlineStr">
         <is>
-          <t>GW-248 #2988</t>
+          <t>GW-248 TN_2988</t>
         </is>
       </c>
       <c r="H913" s="1" t="n"/>
@@ -64837,18 +65411,18 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>51905040409</t>
+          <t>52005040409</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>GW-248 #2988</t>
+          <t>GW-248 TN_2988</t>
         </is>
       </c>
       <c r="E914" s="1" t="n"/>
       <c r="F914" t="inlineStr">
         <is>
-          <t>GW-248 #2988</t>
+          <t>GW-248 TN_2988</t>
         </is>
       </c>
       <c r="H914" s="1" t="n"/>
@@ -64867,18 +65441,18 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>50105040406</t>
+          <t>58505040406</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>BU-528 #2985</t>
+          <t>GW-248 TN_2999</t>
         </is>
       </c>
       <c r="E915" s="1" t="n"/>
       <c r="F915" t="inlineStr">
         <is>
-          <t>BU-528 #2985</t>
+          <t>GW-248 TN_2999</t>
         </is>
       </c>
       <c r="H915" s="1" t="n"/>
@@ -64897,18 +65471,18 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>50105040407</t>
+          <t>58505040407</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>BU-528 #2985</t>
+          <t>GW-248 TN_2999</t>
         </is>
       </c>
       <c r="E916" s="1" t="n"/>
       <c r="F916" t="inlineStr">
         <is>
-          <t>BU-528 #2985</t>
+          <t>GW-248 TN_2999</t>
         </is>
       </c>
       <c r="H916" s="1" t="n"/>
@@ -64927,18 +65501,18 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>50105040408</t>
+          <t>58505040408</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>BU-528 #2985</t>
+          <t>GW-248 TN_2999</t>
         </is>
       </c>
       <c r="E917" s="1" t="n"/>
       <c r="F917" t="inlineStr">
         <is>
-          <t>BU-528 #2985</t>
+          <t>GW-248 TN_2999</t>
         </is>
       </c>
       <c r="H917" s="1" t="n"/>
@@ -64957,24 +65531,24 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>50105040409</t>
+          <t>51305040406</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>BU-528 #2985</t>
+          <t>GW-243 AK2989</t>
         </is>
       </c>
       <c r="E918" s="1" t="n"/>
       <c r="F918" t="inlineStr">
         <is>
-          <t>BU-528 #2985</t>
+          <t>GW-243 AK2989</t>
         </is>
       </c>
       <c r="H918" s="1" t="n"/>
       <c r="I918" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J918" t="inlineStr">
@@ -64987,24 +65561,24 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>53701040406</t>
+          <t>51305040407</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243 AK2989</t>
         </is>
       </c>
       <c r="E919" s="1" t="n"/>
       <c r="F919" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243 AK2989</t>
         </is>
       </c>
       <c r="H919" s="1" t="n"/>
       <c r="I919" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J919" t="inlineStr">
@@ -65017,24 +65591,24 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>53701040407</t>
+          <t>51305040408</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243 AK2989</t>
         </is>
       </c>
       <c r="E920" s="1" t="n"/>
       <c r="F920" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243 AK2989</t>
         </is>
       </c>
       <c r="H920" s="1" t="n"/>
       <c r="I920" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J920" t="inlineStr">
@@ -65047,24 +65621,24 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>53701040408</t>
+          <t>51705040406</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243LC #2994</t>
         </is>
       </c>
       <c r="E921" s="1" t="n"/>
       <c r="F921" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243LC #2994</t>
         </is>
       </c>
       <c r="H921" s="1" t="n"/>
       <c r="I921" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J921" t="inlineStr">
@@ -65077,24 +65651,24 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>53701040409</t>
+          <t>51705040407</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243LC #2994</t>
         </is>
       </c>
       <c r="E922" s="1" t="n"/>
       <c r="F922" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243LC #2994</t>
         </is>
       </c>
       <c r="H922" s="1" t="n"/>
       <c r="I922" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
@@ -65107,24 +65681,24 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>53701040410</t>
+          <t>51705040408</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243LC #2994</t>
         </is>
       </c>
       <c r="E923" s="1" t="n"/>
       <c r="F923" t="inlineStr">
         <is>
-          <t xml:space="preserve">GW-313ST_SL500 </t>
+          <t>GW-243LC #2994</t>
         </is>
       </c>
       <c r="H923" s="1" t="n"/>
       <c r="I923" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
@@ -65137,24 +65711,24 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>52105040406</t>
+          <t>51705040409</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>GW-253 #2982</t>
+          <t>GW-243LC #2994</t>
         </is>
       </c>
       <c r="E924" s="1" t="n"/>
       <c r="F924" t="inlineStr">
         <is>
-          <t>GW-253 #2982</t>
+          <t>GW-243LC #2994</t>
         </is>
       </c>
       <c r="H924" s="1" t="n"/>
       <c r="I924" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J924" t="inlineStr">
@@ -65167,24 +65741,24 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>52105040407</t>
+          <t>51905040406</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>GW-253 #2982</t>
+          <t>GW-248 #2988</t>
         </is>
       </c>
       <c r="E925" s="1" t="n"/>
       <c r="F925" t="inlineStr">
         <is>
-          <t>GW-253 #2982</t>
+          <t>GW-248 #2988</t>
         </is>
       </c>
       <c r="H925" s="1" t="n"/>
       <c r="I925" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J925" t="inlineStr">
@@ -65197,24 +65771,24 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>52105040408</t>
+          <t>51905040407</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>GW-253 #2982</t>
+          <t>GW-248 #2988</t>
         </is>
       </c>
       <c r="E926" s="1" t="n"/>
       <c r="F926" t="inlineStr">
         <is>
-          <t>GW-253 #2982</t>
+          <t>GW-248 #2988</t>
         </is>
       </c>
       <c r="H926" s="1" t="n"/>
       <c r="I926" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
@@ -65227,24 +65801,24 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>52105040409</t>
+          <t>51905040408</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>GW-253 #2982</t>
+          <t>GW-248 #2988</t>
         </is>
       </c>
       <c r="E927" s="1" t="n"/>
       <c r="F927" t="inlineStr">
         <is>
-          <t>GW-253 #2982</t>
+          <t>GW-248 #2988</t>
         </is>
       </c>
       <c r="H927" s="1" t="n"/>
       <c r="I927" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
@@ -65257,24 +65831,24 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>52005040406</t>
+          <t>51905040409</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>GW-253 #2986</t>
+          <t>GW-248 #2988</t>
         </is>
       </c>
       <c r="E928" s="1" t="n"/>
       <c r="F928" t="inlineStr">
         <is>
-          <t>GW-253 #2986</t>
+          <t>GW-248 #2988</t>
         </is>
       </c>
       <c r="H928" s="1" t="n"/>
       <c r="I928" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
@@ -65287,24 +65861,24 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>52005040406</t>
+          <t>50105040406</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>GW-253 #2986</t>
+          <t>BU-528 #2985</t>
         </is>
       </c>
       <c r="E929" s="1" t="n"/>
       <c r="F929" t="inlineStr">
         <is>
-          <t>GW-253 #2986</t>
+          <t>BU-528 #2985</t>
         </is>
       </c>
       <c r="H929" s="1" t="n"/>
       <c r="I929" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
@@ -65317,24 +65891,24 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>52005040406</t>
+          <t>50105040407</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>GW-253 #2986</t>
+          <t>BU-528 #2985</t>
         </is>
       </c>
       <c r="E930" s="1" t="n"/>
       <c r="F930" t="inlineStr">
         <is>
-          <t>GW-253 #2986</t>
+          <t>BU-528 #2985</t>
         </is>
       </c>
       <c r="H930" s="1" t="n"/>
       <c r="I930" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J930" t="inlineStr">
@@ -65347,24 +65921,24 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>52005040406</t>
+          <t>50105040408</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>GW-253 #2986</t>
+          <t>BU-528 #2985</t>
         </is>
       </c>
       <c r="E931" s="1" t="n"/>
       <c r="F931" t="inlineStr">
         <is>
-          <t>GW-253 #2986</t>
+          <t>BU-528 #2985</t>
         </is>
       </c>
       <c r="H931" s="1" t="n"/>
       <c r="I931" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
@@ -65377,24 +65951,24 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>52205040406</t>
+          <t>50105040409</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>GW-264 #2990</t>
+          <t>BU-528 #2985</t>
         </is>
       </c>
       <c r="E932" s="1" t="n"/>
       <c r="F932" t="inlineStr">
         <is>
-          <t>GW-264 #2990</t>
+          <t>BU-528 #2985</t>
         </is>
       </c>
       <c r="H932" s="1" t="n"/>
       <c r="I932" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J932" t="inlineStr">
@@ -65407,24 +65981,24 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>52205040407</t>
+          <t>53701040406</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>GW-264 #2990</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="E933" s="1" t="n"/>
       <c r="F933" t="inlineStr">
         <is>
-          <t>GW-264 #2990</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="H933" s="1" t="n"/>
       <c r="I933" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J933" t="inlineStr">
@@ -65437,24 +66011,24 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>52205040408</t>
+          <t>53701040407</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>GW-264 #2990</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="E934" s="1" t="n"/>
       <c r="F934" t="inlineStr">
         <is>
-          <t>GW-264 #2990</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="H934" s="1" t="n"/>
       <c r="I934" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
@@ -65467,24 +66041,24 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>52205040409</t>
+          <t>53701040408</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>GW-264 #2990</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="E935" s="1" t="n"/>
       <c r="F935" t="inlineStr">
         <is>
-          <t>GW-264 #2990</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="H935" s="1" t="n"/>
       <c r="I935" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
@@ -65497,24 +66071,24 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>52405040406</t>
+          <t>53701040409</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>GW-264 #2991</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="E936" s="1" t="n"/>
       <c r="F936" t="inlineStr">
         <is>
-          <t>GW-264 #2991</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="H936" s="1" t="n"/>
       <c r="I936" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
@@ -65527,24 +66101,24 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>52405040407</t>
+          <t>53701040410</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>GW-264 #2991</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="E937" s="1" t="n"/>
       <c r="F937" t="inlineStr">
         <is>
-          <t>GW-264 #2991</t>
+          <t xml:space="preserve">GW-313ST_SL500 </t>
         </is>
       </c>
       <c r="H937" s="1" t="n"/>
       <c r="I937" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
@@ -65557,24 +66131,24 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>52405040408</t>
+          <t>52105040406</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>GW-264 #2991</t>
+          <t>GW-253 #2982</t>
         </is>
       </c>
       <c r="E938" s="1" t="n"/>
       <c r="F938" t="inlineStr">
         <is>
-          <t>GW-264 #2991</t>
+          <t>GW-253 #2982</t>
         </is>
       </c>
       <c r="H938" s="1" t="n"/>
       <c r="I938" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J938" t="inlineStr">
@@ -65587,24 +66161,24 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>52405040409</t>
+          <t>52105040407</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>GW-264 #2991</t>
+          <t>GW-253 #2982</t>
         </is>
       </c>
       <c r="E939" s="1" t="n"/>
       <c r="F939" t="inlineStr">
         <is>
-          <t>GW-264 #2991</t>
+          <t>GW-253 #2982</t>
         </is>
       </c>
       <c r="H939" s="1" t="n"/>
       <c r="I939" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J939" t="inlineStr">
@@ -65617,24 +66191,24 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>52305040406</t>
+          <t>52105040408</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>GW-264 TN2990</t>
+          <t>GW-253 #2982</t>
         </is>
       </c>
       <c r="E940" s="1" t="n"/>
       <c r="F940" t="inlineStr">
         <is>
-          <t>GW-264 TN2990</t>
+          <t>GW-253 #2982</t>
         </is>
       </c>
       <c r="H940" s="1" t="n"/>
       <c r="I940" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J940" t="inlineStr">
@@ -65647,24 +66221,24 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>52305040407</t>
+          <t>52105040409</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>GW-264 TN2990</t>
+          <t>GW-253 #2982</t>
         </is>
       </c>
       <c r="E941" s="1" t="n"/>
       <c r="F941" t="inlineStr">
         <is>
-          <t>GW-264 TN2990</t>
+          <t>GW-253 #2982</t>
         </is>
       </c>
       <c r="H941" s="1" t="n"/>
       <c r="I941" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J941" t="inlineStr">
@@ -65677,24 +66251,24 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>52305040408</t>
+          <t>52005040406</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>GW-264 TN2990</t>
+          <t>GW-253 #2986</t>
         </is>
       </c>
       <c r="E942" s="1" t="n"/>
       <c r="F942" t="inlineStr">
         <is>
-          <t>GW-264 TN2990</t>
+          <t>GW-253 #2986</t>
         </is>
       </c>
       <c r="H942" s="1" t="n"/>
       <c r="I942" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J942" t="inlineStr">
@@ -65707,24 +66281,24 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>52605040406</t>
+          <t>52005040406</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-1</t>
+          <t>GW-253 #2986</t>
         </is>
       </c>
       <c r="E943" s="1" t="n"/>
       <c r="F943" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-1</t>
+          <t>GW-253 #2986</t>
         </is>
       </c>
       <c r="H943" s="1" t="n"/>
       <c r="I943" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J943" t="inlineStr">
@@ -65737,24 +66311,24 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>52605040407</t>
+          <t>52005040406</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-1</t>
+          <t>GW-253 #2986</t>
         </is>
       </c>
       <c r="E944" s="1" t="n"/>
       <c r="F944" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-1</t>
+          <t>GW-253 #2986</t>
         </is>
       </c>
       <c r="H944" s="1" t="n"/>
       <c r="I944" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J944" t="inlineStr">
@@ -65767,24 +66341,24 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>52605040408</t>
+          <t>52005040406</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-1</t>
+          <t>GW-253 #2986</t>
         </is>
       </c>
       <c r="E945" s="1" t="n"/>
       <c r="F945" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-1</t>
+          <t>GW-253 #2986</t>
         </is>
       </c>
       <c r="H945" s="1" t="n"/>
       <c r="I945" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J945" t="inlineStr">
@@ -65797,24 +66371,24 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>52605040409</t>
+          <t>52205040406</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-1</t>
+          <t>GW-264 #2990</t>
         </is>
       </c>
       <c r="E946" s="1" t="n"/>
       <c r="F946" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-1</t>
+          <t>GW-264 #2990</t>
         </is>
       </c>
       <c r="H946" s="1" t="n"/>
       <c r="I946" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
@@ -65827,24 +66401,24 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>52705040406</t>
+          <t>52205040407</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-3</t>
+          <t>GW-264 #2990</t>
         </is>
       </c>
       <c r="E947" s="1" t="n"/>
       <c r="F947" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-3</t>
+          <t>GW-264 #2990</t>
         </is>
       </c>
       <c r="H947" s="1" t="n"/>
       <c r="I947" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J947" t="inlineStr">
@@ -65857,24 +66431,24 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>52705040407</t>
+          <t>52205040408</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-3</t>
+          <t>GW-264 #2990</t>
         </is>
       </c>
       <c r="E948" s="1" t="n"/>
       <c r="F948" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-3</t>
+          <t>GW-264 #2990</t>
         </is>
       </c>
       <c r="H948" s="1" t="n"/>
       <c r="I948" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J948" t="inlineStr">
@@ -65887,24 +66461,24 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>52705040408</t>
+          <t>52205040409</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-3</t>
+          <t>GW-264 #2990</t>
         </is>
       </c>
       <c r="E949" s="1" t="n"/>
       <c r="F949" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-3</t>
+          <t>GW-264 #2990</t>
         </is>
       </c>
       <c r="H949" s="1" t="n"/>
       <c r="I949" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
@@ -65917,24 +66491,24 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>52705040409</t>
+          <t>52405040406</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-3</t>
+          <t>GW-264 #2991</t>
         </is>
       </c>
       <c r="E950" s="1" t="n"/>
       <c r="F950" t="inlineStr">
         <is>
-          <t>GW-264LC HTJ163-3</t>
+          <t>GW-264 #2991</t>
         </is>
       </c>
       <c r="H950" s="1" t="n"/>
       <c r="I950" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J950" t="inlineStr">
@@ -65947,24 +66521,24 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>52805040406</t>
+          <t>52405040407</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>GW-264LC WS777</t>
+          <t>GW-264 #2991</t>
         </is>
       </c>
       <c r="E951" s="1" t="n"/>
       <c r="F951" t="inlineStr">
         <is>
-          <t>GW-264LC WS777</t>
+          <t>GW-264 #2991</t>
         </is>
       </c>
       <c r="H951" s="1" t="n"/>
       <c r="I951" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J951" t="inlineStr">
@@ -65977,24 +66551,24 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>52805040407</t>
+          <t>52405040408</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>GW-264LC WS777</t>
+          <t>GW-264 #2991</t>
         </is>
       </c>
       <c r="E952" s="1" t="n"/>
       <c r="F952" t="inlineStr">
         <is>
-          <t>GW-264LC WS777</t>
+          <t>GW-264 #2991</t>
         </is>
       </c>
       <c r="H952" s="1" t="n"/>
       <c r="I952" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
@@ -66007,24 +66581,24 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>52805040408</t>
+          <t>52405040409</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>GW-264LC WS777</t>
+          <t>GW-264 #2991</t>
         </is>
       </c>
       <c r="E953" s="1" t="n"/>
       <c r="F953" t="inlineStr">
         <is>
-          <t>GW-264LC WS777</t>
+          <t>GW-264 #2991</t>
         </is>
       </c>
       <c r="H953" s="1" t="n"/>
       <c r="I953" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J953" t="inlineStr">
@@ -66037,24 +66611,24 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>52805040409</t>
+          <t>52305040406</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>GW-264LC WS777</t>
+          <t>GW-264 TN2990</t>
         </is>
       </c>
       <c r="E954" s="1" t="n"/>
       <c r="F954" t="inlineStr">
         <is>
-          <t>GW-264LC WS777</t>
+          <t>GW-264 TN2990</t>
         </is>
       </c>
       <c r="H954" s="1" t="n"/>
       <c r="I954" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J954" t="inlineStr">
@@ -66067,24 +66641,24 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>58205040406</t>
+          <t>52305040407</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>KW-510 #2995</t>
+          <t>GW-264 TN2990</t>
         </is>
       </c>
       <c r="E955" s="1" t="n"/>
       <c r="F955" t="inlineStr">
         <is>
-          <t>KW-510 #2995</t>
+          <t>GW-264 TN2990</t>
         </is>
       </c>
       <c r="H955" s="1" t="n"/>
       <c r="I955" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J955" t="inlineStr">
@@ -66097,24 +66671,24 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>58205040407</t>
+          <t>52305040408</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>KW-510 #2995</t>
+          <t>GW-264 TN2990</t>
         </is>
       </c>
       <c r="E956" s="1" t="n"/>
       <c r="F956" t="inlineStr">
         <is>
-          <t>KW-510 #2995</t>
+          <t>GW-264 TN2990</t>
         </is>
       </c>
       <c r="H956" s="1" t="n"/>
       <c r="I956" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J956" t="inlineStr">
@@ -66127,24 +66701,24 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>58205040408</t>
+          <t>52605040406</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>KW-510 #2995</t>
+          <t>GW-264LC HTJ163-1</t>
         </is>
       </c>
       <c r="E957" s="1" t="n"/>
       <c r="F957" t="inlineStr">
         <is>
-          <t>KW-510 #2995</t>
+          <t>GW-264LC HTJ163-1</t>
         </is>
       </c>
       <c r="H957" s="1" t="n"/>
       <c r="I957" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
@@ -66157,24 +66731,24 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>55805040406</t>
+          <t>52605040407</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>KW-510 TN2995</t>
+          <t>GW-264LC HTJ163-1</t>
         </is>
       </c>
       <c r="E958" s="1" t="n"/>
       <c r="F958" t="inlineStr">
         <is>
-          <t>KW-510 TN2995</t>
+          <t>GW-264LC HTJ163-1</t>
         </is>
       </c>
       <c r="H958" s="1" t="n"/>
       <c r="I958" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
@@ -66187,24 +66761,24 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>55805040407</t>
+          <t>52605040408</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>KW-510 TN2995</t>
+          <t>GW-264LC HTJ163-1</t>
         </is>
       </c>
       <c r="E959" s="1" t="n"/>
       <c r="F959" t="inlineStr">
         <is>
-          <t>KW-510 TN2995</t>
+          <t>GW-264LC HTJ163-1</t>
         </is>
       </c>
       <c r="H959" s="1" t="n"/>
       <c r="I959" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
@@ -66217,24 +66791,24 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>55805040408</t>
+          <t>52605040409</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>KW-510 TN2995</t>
+          <t>GW-264LC HTJ163-1</t>
         </is>
       </c>
       <c r="E960" s="1" t="n"/>
       <c r="F960" t="inlineStr">
         <is>
-          <t>KW-510 TN2995</t>
+          <t>GW-264LC HTJ163-1</t>
         </is>
       </c>
       <c r="H960" s="1" t="n"/>
       <c r="I960" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J960" t="inlineStr">
@@ -66247,18 +66821,18 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>58105040406</t>
+          <t>52705040406</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>KW-510 TN2998</t>
+          <t>GW-264LC HTJ163-3</t>
         </is>
       </c>
       <c r="E961" s="1" t="n"/>
       <c r="F961" t="inlineStr">
         <is>
-          <t>KW-510 TN2998</t>
+          <t>GW-264LC HTJ163-3</t>
         </is>
       </c>
       <c r="H961" s="1" t="n"/>
@@ -66277,18 +66851,18 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>58105040407</t>
+          <t>52705040407</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>KW-510 TN2998</t>
+          <t>GW-264LC HTJ163-3</t>
         </is>
       </c>
       <c r="E962" s="1" t="n"/>
       <c r="F962" t="inlineStr">
         <is>
-          <t>KW-510 TN2998</t>
+          <t>GW-264LC HTJ163-3</t>
         </is>
       </c>
       <c r="H962" s="1" t="n"/>
@@ -66307,18 +66881,18 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>58105040408</t>
+          <t>52705040408</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>KW-510 TN2998</t>
+          <t>GW-264LC HTJ163-3</t>
         </is>
       </c>
       <c r="E963" s="1" t="n"/>
       <c r="F963" t="inlineStr">
         <is>
-          <t>KW-510 TN2998</t>
+          <t>GW-264LC HTJ163-3</t>
         </is>
       </c>
       <c r="H963" s="1" t="n"/>
@@ -66337,24 +66911,24 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>58405040406</t>
+          <t>52705040409</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>KW-513 #2997</t>
+          <t>GW-264LC HTJ163-3</t>
         </is>
       </c>
       <c r="E964" s="1" t="n"/>
       <c r="F964" t="inlineStr">
         <is>
-          <t>KW-513 #2997</t>
+          <t>GW-264LC HTJ163-3</t>
         </is>
       </c>
       <c r="H964" s="1" t="n"/>
       <c r="I964" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J964" t="inlineStr">
@@ -66367,24 +66941,24 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>58405040407</t>
+          <t>52805040406</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>KW-513 #2997</t>
+          <t>GW-264LC WS777</t>
         </is>
       </c>
       <c r="E965" s="1" t="n"/>
       <c r="F965" t="inlineStr">
         <is>
-          <t>KW-513 #2997</t>
+          <t>GW-264LC WS777</t>
         </is>
       </c>
       <c r="H965" s="1" t="n"/>
       <c r="I965" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J965" t="inlineStr">
@@ -66397,32 +66971,452 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>58405040408</t>
+          <t>52805040407</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>KW-513 #2997</t>
+          <t>GW-264LC WS777</t>
         </is>
       </c>
       <c r="E966" s="1" t="n"/>
       <c r="F966" t="inlineStr">
         <is>
-          <t>KW-513 #2997</t>
+          <t>GW-264LC WS777</t>
         </is>
       </c>
       <c r="H966" s="1" t="n"/>
       <c r="I966" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J966" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K966" s="1" t="n"/>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>52805040408</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>GW-264LC WS777</t>
+        </is>
+      </c>
+      <c r="E967" s="1" t="n"/>
+      <c r="F967" t="inlineStr">
+        <is>
+          <t>GW-264LC WS777</t>
+        </is>
+      </c>
+      <c r="H967" s="1" t="n"/>
+      <c r="I967" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="J966" t="inlineStr">
+      <c r="J967" t="inlineStr">
         <is>
           <t>OEM</t>
         </is>
       </c>
-      <c r="K966" s="1" t="n"/>
+      <c r="K967" s="1" t="n"/>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>52805040409</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>GW-264LC WS777</t>
+        </is>
+      </c>
+      <c r="E968" s="1" t="n"/>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>GW-264LC WS777</t>
+        </is>
+      </c>
+      <c r="H968" s="1" t="n"/>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J968" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K968" s="1" t="n"/>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>58205040406</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>KW-510 #2995</t>
+        </is>
+      </c>
+      <c r="E969" s="1" t="n"/>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>KW-510 #2995</t>
+        </is>
+      </c>
+      <c r="H969" s="1" t="n"/>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J969" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K969" s="1" t="n"/>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>58205040407</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>KW-510 #2995</t>
+        </is>
+      </c>
+      <c r="E970" s="1" t="n"/>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>KW-510 #2995</t>
+        </is>
+      </c>
+      <c r="H970" s="1" t="n"/>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J970" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K970" s="1" t="n"/>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>58205040408</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>KW-510 #2995</t>
+        </is>
+      </c>
+      <c r="E971" s="1" t="n"/>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>KW-510 #2995</t>
+        </is>
+      </c>
+      <c r="H971" s="1" t="n"/>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J971" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K971" s="1" t="n"/>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>55805040406</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>KW-510 TN2995</t>
+        </is>
+      </c>
+      <c r="E972" s="1" t="n"/>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>KW-510 TN2995</t>
+        </is>
+      </c>
+      <c r="H972" s="1" t="n"/>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J972" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K972" s="1" t="n"/>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>55805040407</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>KW-510 TN2995</t>
+        </is>
+      </c>
+      <c r="E973" s="1" t="n"/>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>KW-510 TN2995</t>
+        </is>
+      </c>
+      <c r="H973" s="1" t="n"/>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J973" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K973" s="1" t="n"/>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>55805040408</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>KW-510 TN2995</t>
+        </is>
+      </c>
+      <c r="E974" s="1" t="n"/>
+      <c r="F974" t="inlineStr">
+        <is>
+          <t>KW-510 TN2995</t>
+        </is>
+      </c>
+      <c r="H974" s="1" t="n"/>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J974" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K974" s="1" t="n"/>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>58105040406</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>KW-510 TN2998</t>
+        </is>
+      </c>
+      <c r="E975" s="1" t="n"/>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>KW-510 TN2998</t>
+        </is>
+      </c>
+      <c r="H975" s="1" t="n"/>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J975" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K975" s="1" t="n"/>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>58105040407</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>KW-510 TN2998</t>
+        </is>
+      </c>
+      <c r="E976" s="1" t="n"/>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>KW-510 TN2998</t>
+        </is>
+      </c>
+      <c r="H976" s="1" t="n"/>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J976" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K976" s="1" t="n"/>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>58105040408</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>KW-510 TN2998</t>
+        </is>
+      </c>
+      <c r="E977" s="1" t="n"/>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>KW-510 TN2998</t>
+        </is>
+      </c>
+      <c r="H977" s="1" t="n"/>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J977" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K977" s="1" t="n"/>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>58405040406</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>KW-513 #2997</t>
+        </is>
+      </c>
+      <c r="E978" s="1" t="n"/>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>KW-513 #2997</t>
+        </is>
+      </c>
+      <c r="H978" s="1" t="n"/>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J978" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K978" s="1" t="n"/>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>58405040407</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>KW-513 #2997</t>
+        </is>
+      </c>
+      <c r="E979" s="1" t="n"/>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>KW-513 #2997</t>
+        </is>
+      </c>
+      <c r="H979" s="1" t="n"/>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J979" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K979" s="1" t="n"/>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>58405040408</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>KW-513 #2997</t>
+        </is>
+      </c>
+      <c r="E980" s="1" t="n"/>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>KW-513 #2997</t>
+        </is>
+      </c>
+      <c r="H980" s="1" t="n"/>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J980" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="K980" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -66435,7 +67429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67033,6 +68027,145 @@
           <t>B52</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>A1:W55</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TemThung1MaVachMoi2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>R18</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>R14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D26</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>G31</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>A37</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>A45</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>A1:X50</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TemThung2MaVachMoi2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>E37</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>O3</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>H42</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>B26</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>B34</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>B47</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B50</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>N56</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>A1:X58</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
